--- a/testData/CJMCASE/demo模板.xlsx
+++ b/testData/CJMCASE/demo模板.xlsx
@@ -1192,12 +1192,12 @@
       </c>
       <c r="H2" s="0" t="inlineStr">
         <is>
-          <t>2020-12-02 14:21:28</t>
-        </is>
-      </c>
-      <c r="I2" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
+          <t>2020-12-02 15:25:52</t>
+        </is>
+      </c>
+      <c r="I2" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr"/>
@@ -18004,7 +18004,7 @@
       </c>
       <c r="N2" s="6" t="inlineStr">
         <is>
-          <t>2020-12-02 14:21:28</t>
+          <t>2020-12-02 15:25:22</t>
         </is>
       </c>
       <c r="O2" s="0" t="inlineStr">
@@ -18075,17 +18075,17 @@
       </c>
       <c r="N3" s="6" t="inlineStr">
         <is>
-          <t>2020-12-02 14:21:28</t>
+          <t>2020-12-02 15:25:52</t>
         </is>
       </c>
       <c r="O3" s="0" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': {'list': [{'villageId': 'f67b081c30304adfb7d82d6a4a02989d', 'villageNumber': '3301060050000004', 'villageName': '王汉村', 'regionCode': '330106005000', 'villageTownshipName': '王汉村(华星路99号)', 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': None, 'naturalVillage': '王汉村', 'multiple': 17, 'househoIdIdList': None}, {'villageId': '26697df059b14cba93f479091e19c752', 'villageNumber': '3301060050000003', 'villageName': '王汉村', 'regionCode': '330106005000', 'villageTownshipName': '王汉村(华星路99号)', 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': None, 'naturalVillage': '王汉村', 'multiple': 17, 'househoIdIdList': None}, {'villageId': '1a0e1262bada410684a6284ecbf2013d', 'villageNumber': '3301060050000002', 'villageName': '王汉村', 'regionCode': '330106005000', 'villageTownshipName': '王汉村(华星路99号)', 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': None, 'naturalVillage': '王汉村', 'multiple': 17, 'househoIdIdList': None}, {'villageId': 'ebd6fd3f53e04255a4bfd852c2aaee9e', 'villageNumber': '3301060050000001', 'villageName': '王汉村123', 'regionCode': '330106005000', 'villageTownshipName': '王汉村123(华星路99号)', 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': None, 'naturalVillage': '王汉村', 'multiple': 17, 'househoIdIdList': None}, {'villageId': 'ce7f9d1c5ccf4b92ac14cc72faa51670', 'villageNumber': '3301100040000001', 'villageName': '黄杨尖', 'regionCode': '330110004000', 'villageTownshipName': '黄杨尖(1)', 'regionCodeName': None, 'townshipName': '1', 'image': '', 'introduction': '', 'address': '浙江省舟山市普陀区黄杨尖村', 'longitude': 122.259895, 'latitude': 30.045121, 'area': 11.0, 'perCapitaIncome': 1.0, 'ext': None, 'naturalVillage': '黄杨尖1', 'multiple': 17, 'househoIdIdList': None}, {'villageId': '1901978fa48a4124a4c25d923867a8cb', 'villageNumber': '1101010013', 'villageName': '云上集市村', 'regionCode': '110101004000', 'villageTownshipName': '云上集市村(甲骨文)', 'regionCodeName': None, 'townshipName': '甲骨文', 'image': '44aaa24fec7e40e892d48ce634a8d324', 'introduction': None, 'address': '', 'longitude': 116.439552, 'latitude': 39.899338, 'area': 1500.0, 'perCapitaIncome': 6500.0, 'ext': None, 'naturalVillage': '111', 'multiple': 16, 'househoIdIdList': None}, {'villageId': '56117cbf05514d398d075e9f1cf9a972', 'villageNumber': '1101010012', 'villageName': '一村一码展示村', 'regionCode': '110101001000', 'villageTownshipName': '一村一码展示村(甲骨文)', 'regionCodeName': None, 'townshipName': '甲骨文', 'image': '5cdc96b555864cfca8a0e28dff794217,1aae326f787c4028bad4ccc15bf8ad8b', 'introduction': '&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000&lt;strong&gt;央视网消息&lt;/strong&gt;（新闻联播）：中共中央总书记、国家主席、中央军委主席习近平24日下午在参加十三届全国人大三次会议湖北代表团审议时强调，防范化解重大疫情和突发公共卫生风险，事关国家安全和发展，事关社会政治大局稳定。要坚持整体谋划、系统重塑、全面提升，改革疾病预防控制体系，提升疫情监测预警和应急响应能力，健全重大疫情救治体系，完善公共卫生应急法律法规，深入开展爱国卫生运动，着力从体制机制层面理顺关系、强化责任。&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255); text-align: center;"&gt;&lt;img src="http://p5.img.cctvpic.com//photoworkspace/2020/05/24/2020052421431422865.jpg" alt="\u3000" width="500"/&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;\u3000\u30005月24日，中共中央总书记、国家主席、中央军委主席习近平参加十三届全国人大三次会议湖北代表团的审议。&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000当习近平走进会场时，全场起立，热烈鼓掌。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000罗杰、阎志、张文喜、宋庆礼、禹诚5位代表分别就加强公共卫生体系建设、加大对实体经济扶持、提升城乡基层治理水平、贫困山区大交通建设和脱贫产业发展、疫情防控展现中国制度优势等问题发表意见。习近平同代表们进行深入交流。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000在认真听取代表发言后，习近平作了发言。他首先表示，湖北人民、武汉人民为疫情防控作出了重大贡献，也付出了巨大牺牲。武汉不愧为英雄的城市，湖北人民和武汉人民不愧为英雄的人民。他向在座各位、向湖北各族干部群众致以诚挚的问候和衷心的感谢。&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255); text-align: center;"&gt;&lt;img src="http://p3.img.cctvpic.com//photoworkspace/2020/05/24/2020052421441092979.jpg" alt="\u3000" width="500"/&gt;&lt;/p&gt;&lt;p class="photo_alt_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;\u3000\u30005月24日，中共中央总书记、国家主席、中央军委主席习近平参加十三届全国人大三次会议湖北代表团的审议。&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平强调，当前，境外疫情扩散蔓延势头仍然没有得到有效遏制，国内个别地区聚集性疫情仍然存在，湖北有时还出现散发零星确诊病例，无症状感染者每天还有新增。针尖大的窟窿能漏过斗大的风。要时刻绷紧疫情防控这根弦，慎终如始、再接再厉，持续抓好外防输入、内防反弹工作，决不能让来之不易的疫情防控成果前功尽弃。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平指出，作为全国疫情最重、管控时间最长的省份，湖北经济重振面临较大困难。同时，湖北经济长期向好的基本面没有改变，多年积累的综合优势没有改变，在国家和区域发展中的重要地位没有改变。党中央研究确定了支持湖北省经济社会发展一揽子政策。希望湖北的同志统筹推进疫情防控和经济社会发展工作，坚持稳中求进工作总基调，主动作为、奋发有为，充分激发广大干部群众积极性、主动性、创造性，确保完成决胜全面建成小康社会、决战脱贫攻坚目标任务，奋力谱写湖北高质量发展新篇章。&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255); text-align: center;"&gt;&lt;img src="http://p1.img.cctvpic.com//photoworkspace/2020/05/24/2020052421450288590.jpg" alt="\u3000" width="500"/&gt;&lt;/p&gt;&lt;p class="photo_alt_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;\u3000\u30005月24日，中共中央总书记、国家主席、中央军委主席习近平参加十三届全国人大三次会议湖北代表团的审议。&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平强调，当前，摆在湖北面前的紧要任务，就是全力做好统筹疫情防控和经济社会发展工作。要全力做好常态化疫情防控工作，坚持常态化精准防控和局部应急处置有机结合，加强社区精准防控，扩大检测范围，不断巩固疫情防控成果。要加快复工复产、复商复市，围绕重点产业链、龙头企业、重大投资项目精准施策，着力帮助解决产业链协同复工复产中的各种堵点、难点问题，帮助解决企业特别是中小微企业面临的实际困难，抓紧出台和落实各项刺激消费的措施，千方百计把疫情造成的损失降到最低。要切实做好“六保”工作，做好高校毕业生、农民工等重点群体就业，做好保基本民生工作，帮助群众解决社保、医保、就学等方面的实际困难，落实好特殊困难群众兜底保障工作，坚决完成剩余贫困人口脱贫任务，防止因疫致贫或返贫。要高度重视化解可能出现的“疫后综合症”，继续做好治愈患者康复和心理疏导工作以及病亡者家属抚慰工作，妥善解决因疫利益受损群众的合理诉求。中央和国家机关单位、中央企业要继续加大对湖北疫后重振支持力度，让各项政策措施在湖北早落地、早见效、早受益，把政策优势转化为发展优势。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平指出，这次应对疫情，我国公共卫生体系、医疗服务体系发挥了重要作用，但也暴露出来一些短板和不足。我们要正视存在的问题，加大改革力度，抓紧补短板、堵漏洞、强弱项。预防是最经济最有效的健康策略。要立足更精准更有效地防，优化完善疾病预防控制机构职能设置，创新医防协同机制，强化各级医疗机构疾病预防控制职责，督促落实传染病疫情和突发公共卫生事件报告责任，健全疾控机构与城乡社区联动工作机制，加强乡镇卫生院和社区卫生服务中心疾病预防控制职责，夯实联防联控的基层基础。&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255); text-align: center;"&gt;&lt;img src="http://p4.img.cctvpic.com//photoworkspace/2020/05/24/2020052421455873372.jpg" alt="\u3000" width="500"/&gt;&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;\u3000\u30005月24日，中共中央总书记、国家主席、中央军委主席习近平参加十三届全国人大三次会议湖北代表团的审议。&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平强调，疫情监测预警贵在及时、准确。要改进不明原因疾病和异常健康事件监测机制，提高评估监测敏感性和准确性，建立智慧化预警多点触发机制，健全多渠道监测预警机制，及时研判风险，加强传染病等重大疫情应对处置能力建设和培训演练，改善疾病预防控制基础条件，完善公共卫生服务项目，建立适应现代化疾控体系的人才培养使用机制，增强一线疾控人员的荣誉感和使命感。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平指出，要统筹应急状态下医疗卫生机构动员响应、区域联动、人员调集，建立健全分级、分层、分流的重大疫情救治机制，加强国家医学中心、区域医疗中心等基地建设，健全重大疾病医疗保险和救助制度，优化科研攻关体系和布局，抓好《关于健全公共卫生应急物资保障体系的实施方案》组织落实。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平强调，要加快构建系统完备、科学规范、运行高效的公共卫生法律法规体系，健全权责明确、程序规范、执行有力的疫情防控执法机制，普及公共卫生安全和疫情防控相关法律法规，提高全民知法、懂法、守法、护法、用法意识和公共卫生风险防控意识。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平指出，新时代开展爱国卫生运动，要坚持预防为主，创新方式方法，推进城乡环境整治，完善公共卫生设施，大力开展健康知识普及，倡导文明健康、绿色环保的生活方式，把全生命周期管理理念贯穿城市规划、建设、管理全过程各环节，加快建设适应城镇化快速发展、城市人口密集集中特点的公共卫生体系，深入持久开展农村人居环境整治。现在，出门佩戴口罩、垃圾分类投放、保持社交距离、推广分餐公筷、看病网上预约等，正在悄然成为良好社会风尚。这些健康文明的做法要推广开来、坚持下去。&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;', 'address': '浙江省杭州市江干区富春路789号宋都房地产集团有限公司', 'longitude': 120.21686, 'latitude': 30.254082, 'area': 1500.0, 'perCapitaIncome': 200001.0, 'ext': None, 'naturalVillage': '2222222,33333333', 'multiple': 14, 'househoIdIdList': None}, {'villageId': '866fdbda20014a36bd6e01fb664b88aa', 'villageNumber': '1201020020000001', 'villageName': '吱吱吱吱123', 'regionCode': '140105001000', 'villageTownshipName': '吱吱吱吱123(甲骨文镇123)', 'regionCodeName': None, 'townshipName': '甲骨文镇123', 'image': '2ce1e123a32b445c8f921ea6716b37ed,78561e9735b545f9bdf0bd87805d312d,c95cb7439bc14761ace9cd239cce2852,f59d4ed0d0c24dbda75de0916d1d8f6c,a5cfbbf34ec84aa7b1b1e2b8b05cbb12,edf3ee05e3084602aad90cda7bdc6cd5,8fa21b37c6874e08b016739865363615,901a3e5ac7b44fc7b977a2c13dd1178b,dc926336cd304ec6892dd879e91e6bc9', 'introduction': '&lt;p&gt;&lt;strong&gt;&lt;span style="font-family: &amp;quot;Microsoft Yahei&amp;quot;;"&gt;这是一次罕见的全球性危机，也是全人类面临的共同挑战。作为最早向国际社会通报疫情、最早迎战疫情的国家，中国全民动员、举国上阵，经过艰苦奋战，付出巨大牺牲，成为世界上率先控制住国内疫情的国家之一，不仅为世界守住疫情防控的区域防线，也为全球抗疫积累了宝贵经验。&amp;lt;/p&amp;gt;&amp;lt;p&amp;nbsp; style=\\&amp;quot;-webkit-tap-highlight-color:&amp;nbsp; rgba(0,&amp;nbsp; 0,&amp;nbsp; 0,&amp;nbsp; 0);&amp;nbsp; margin-top:&amp;nbsp; 0px;&amp;nbsp; margin-bottom:&amp;nbsp; 25px;&amp;nbsp; font-size:&amp;nbsp; 18px;&amp;nbsp; text-align:&amp;nbsp; justify;&amp;nbsp; word-break:&amp;nbsp; normal;&amp;nbsp; overflow-wrap:&amp;nbsp; break-word;&amp;nbsp; background-color:&amp;nbsp; rgb(255,&amp;nbsp; 255,&amp;nbsp; 255);&amp;nbsp; text-indent:&amp;nbsp; 2em;&amp;nbsp; color:&amp;nbsp; rgb(47,&amp;nbsp; 47,&amp;nbsp; 47);&amp;nbsp; font-family:&amp;nbsp; PingFangSC-Regular,&amp;nbsp; STXihei,&amp;nbsp; Verdana,&amp;nbsp; Calibri,&amp;nbsp; Helvetica,&amp;nbsp; Arial,&amp;nbsp; sans-serif;&amp;nbsp; white-space:&amp;nbsp; normal;\\&amp;quot;&amp;gt;事非经过不知难。如今，越来越多的人认识到新冠病毒的“狡猾”，也切身体验到疫情对人类社会的巨大危害。但在3个多月前，恐怕谁也料不到，疫情会以如此猛烈的方式肆虐全球。突袭而至，来势汹汹，中国迎战的风险和难度超乎想象：如何对尚未充分认知的病毒进行防控？如何在春运大潮中阻断病毒传播？如何确保数目庞大的患者应收尽收、应治尽治？如何确定有效的治疗手段和药物……诸多未知，考验应对。&amp;lt;span&amp;nbsp; style=\\&amp;quot;-webkit-tap-highlight-color:&amp;nbsp; rgba(0,&amp;nbsp; 0,&amp;nbsp; 0,&amp;nbsp; 0);&amp;nbsp; font-weight:&amp;nbsp; 700;&amp;nbsp; color:&amp;nbsp; rgb(51,&amp;nbsp; 51,&amp;nbsp; 51);\\&amp;quot;&amp;gt;有人说，中国提前做了一场“闭卷考试”，在病毒传染国内人口不到0.006%时就勒住了“脱缰野马”，创造了人类与传染病斗争史上的奇迹。&amp;lt;/span&amp;gt;这样的“中国答卷”，来之不易，感天动地。&amp;lt;/p&amp;gt;&amp;lt;p&amp;nbsp; style=\\&amp;quot;-webkit-tap-highlight-color:&amp;nbsp; rgba(0,&amp;nbsp; 0,&amp;nbsp; 0,&amp;nbsp; 0);&amp;nbsp; margin-top:&amp;nbsp; 0px;&amp;nbsp; margin-bottom:&amp;nbsp; 25px;&amp;nbsp; font-size:&amp;nbsp; 18px;&amp;nbsp; text-align:&amp;nbsp; justify;&amp;nbsp; word-break:&amp;nbsp; normal;&amp;nbsp; overflow-wrap:&amp;nbsp; break-word;&amp;nbsp; background-color:&amp;nbsp; rgb(255,&amp;nbsp; 255,&amp;nbsp; 255);&amp;nbsp; text-indent:&amp;nbsp; 2em;&amp;nbsp; color:&amp;nbsp; rgb(47,&amp;nbsp; 47,&amp;nbsp; 47);&amp;nbsp; font-family:&amp;nbsp; PingFangSC-Regular,&amp;nbsp; STXihei,&amp;nbsp; Verdana,&amp;nbsp; Calibri,&amp;nbsp; Helvetica,&amp;nbsp; Arial,&amp;nbsp; sans-serif;&amp;nbsp; white-space:&amp;nbsp; normal;\\&amp;quot;&amp;gt;&amp;lt;span&amp;nbsp; style=\\&amp;quot;-webkit-tap-highlight-color:&amp;nbsp; rgba(0,&amp;nbsp; 0,&amp;nbsp; 0,&amp;nbsp; 0);&amp;nbsp; font-weight:&amp;nbsp; 700;&amp;nbsp; color:&amp;nbsp; rgb(51,&amp;nbsp; 51,&amp;nbsp; 51);\\&amp;quot;&amp;gt;这张“中国答卷”，记录下艰苦卓绝的努力。&amp;lt;/span&amp;gt;习近平总书记把疫情比作一次大考，亲自指挥、亲自部署，农历大年初一当天主持召开中央政治局常委会会议，对疫情防控特别是患者治疗工作进行再研究、再部署、再动员。而此前两天，武汉关闭离汉通道，采取“封城”措施；此前一天，3支解放军医疗队逆行武汉，紧急支援。早发现、早报告、早隔离、早治疗，集中患者、集中专家、集中资源、集中救治……全国各地4.2万医务人员火速赶赴武汉，火神山医院、雷神山医院10天启用。世界卫生组织报告指出，“面对前所未知的病毒，中国采取了历史上最勇敢、最灵活、最积极的防控措施”；美国《科学》杂志登载的研究报告显示，中国的防控措施成功地打破了病毒传播链，避免了数十万人感染。&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;', 'address': '', 'longitude': 113.154565, 'latitude': 22.971704, 'area': 1500.0, 'perCapitaIncome': 16081.0, 'ext': None, 'naturalVillage': '22,11,3,4,64,爱神爱神,123123', 'multiple': 12, 'househoIdIdList': None}, {'villageId': '1951b8b3ffe74fc083b83ed96eb87956', 'villageNumber': '3301121030000001', 'villageName': '指南村', 'regionCode': '330112103000', 'villageTownshipName': '指南村(浙江省杭州市临安区太湖源镇)', 'regionCodeName': None, 'townshipName': '浙江省杭州市临安区太湖源镇', 'image': '9b69ede11c6a4787adc2112180c35539', 'introduction': '&lt;p&gt;&amp;nbsp; &amp;nbsp; 太湖源镇指南村区域面积7.86平方公里，平均海拔550米，森林覆盖率在93%以上。由指南和塘顶两个自然村组成，213户678人（塘顶43户，指南170户），房屋198幢。&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; 太湖源镇耕地总面积42262亩，其中基本农田41771亩，人均耕地面积1.32亩。指南村耕地总面积1164亩，其中基本农田512亩，人均耕地面积1.71亩。2019年全镇耕地保护资金443.54万元（农户104.38万元，行政村339.16万元），指南村耕地保护资金5.84万元（农户1.64万元，行政村4.2万元），另有耕地保护示范镇奖励50万元。&lt;/p&gt;&lt;p&gt;2019年全镇审批农民建房254户，去年占用耕地建房25户。2020年已审批农民建房124户，占用耕地建房10户。&lt;/p&gt;&lt;p&gt;指南村2019年审批7户，2020年审批2户。&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; 全区村庄建设用地52.71平方千米，人均村庄建设用地216平方米/人。太湖源镇村庄建设用地6.91平方米千米，人均村庄建设用地215平方米/人。指南村村庄建设用地0.14平方千米，人均村庄建设用地208平方米/人。轻钢房建造价格（博墅）：1300元/平方米、1400元/平方米、1700元/平方米，不含装修费用&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;', 'address': '太湖源镇永指线西50米指南村村委会', 'longitude': 119.579203, 'latitude': 30.362472, 'area': 78600.0, 'perCapitaIncome': 35000.0, 'ext': None, 'naturalVillage': '浙江省杭州市临安区太湖源镇指南村', 'multiple': 16, 'househoIdIdList': None}, {'villageId': 'cc090a2d74f042bab938b31d5c151eec', 'villageNumber': '1302030014', 'villageName': '画地图村', 'regionCode': '130203', 'villageTownshipName': '画地图村(画地图)', 'regionCodeName': None, 'townshipName': '画地图', 'image': 'ff319775388441df9a7577a3d94c361c', 'introduction': None, 'address': '浙江省杭州市上城区浣纱路261号杭州市第一人民医院', 'longitude': 120.164147, 'latitude': 30.277323, 'area': 5000.0, 'perCapitaIncome': 15001.0, 'ext': None, 'naturalVillage': '测试导3,测试导21,测试导,cxzzzz,ccc,cxz,qqqqqqqqqqqqqqqqqqqq', 'multiple': 16, 'househoIdIdList': None}], 'pagination': {'startNumber': 0, 'current': 1, 'totalPage': 2, 'pageSize': 10, 'total': 20}}}</t>
-        </is>
-      </c>
-      <c r="P3" s="19" t="inlineStr">
-        <is>
-          <t>200</t>
+          <t>{'timestamp': '2020-12-02 15:25:52', 'path': '/digital-village/hydra-digital-village/api/v1/village-information/list', 'status': 500, 'error': 'Internal Server Error', 'message': 'connection timed out: /192.168.137.1:15010'}</t>
+        </is>
+      </c>
+      <c r="P3" s="20" t="inlineStr">
+        <is>
+          <t>500</t>
         </is>
       </c>
       <c r="Q3" s="0" t="inlineStr"/>
@@ -18139,19 +18139,19 @@
           <t>villageExtId,villageNumber,naturalVillageNumber</t>
         </is>
       </c>
-      <c r="M4" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="M4" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
         </is>
       </c>
       <c r="N4" s="6" t="inlineStr">
         <is>
-          <t>2020-12-02 14:21:28</t>
+          <t>2020-12-02 15:25:52</t>
         </is>
       </c>
       <c r="O4" s="0" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': {'villageId': 'f67b081c30304adfb7d82d6a4a02989d', 'villageNumber': '3301060050000004', 'villageName': '王汉村', 'regionCode': '330106005000', 'villageTownshipName': None, 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': [{'villageExtId': '2680eabd1f9a4a8eb966b1316daed489', 'villageId': 'f67b081c30304adfb7d82d6a4a02989d', 'name': '王汉村', 'address': '[[120.119817,30.278977],[120.119978,30.277217],[120.122338,30.277365],[120.122199,30.278088],[120.122156,30.278282],[120.122456,30.278403],[120.122585,30.278588],[120.122521,30.279107]]', 'naturalVillageNumber': 'WHC1606890088699'}], 'naturalVillage': None, 'multiple': 17, 'househoIdIdList': None}}</t>
+          <t>Error!</t>
         </is>
       </c>
       <c r="P4" s="19" t="inlineStr">
@@ -18159,7 +18159,11 @@
           <t>200</t>
         </is>
       </c>
-      <c r="Q4" s="0" t="inlineStr"/>
+      <c r="Q4" s="0" t="inlineStr">
+        <is>
+          <t>请求失败！</t>
+        </is>
+      </c>
       <c r="R4" s="0" t="inlineStr">
         <is>
           <t>success&amp;&amp;王汉村&amp;&amp;华星路99号</t>
@@ -18200,19 +18204,19 @@
           <t>token</t>
         </is>
       </c>
-      <c r="M5" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="M5" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
         </is>
       </c>
       <c r="N5" s="6" t="inlineStr">
         <is>
-          <t>2020-12-02 14:21:28</t>
+          <t>2020-12-02 15:25:52</t>
         </is>
       </c>
       <c r="O5" s="0" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': None}</t>
+          <t>Error!</t>
         </is>
       </c>
       <c r="P5" s="19" t="inlineStr">
@@ -18220,7 +18224,11 @@
           <t>200</t>
         </is>
       </c>
-      <c r="Q5" s="0" t="inlineStr"/>
+      <c r="Q5" s="0" t="inlineStr">
+        <is>
+          <t>请求失败！</t>
+        </is>
+      </c>
       <c r="R5" s="0" t="inlineStr">
         <is>
           <t>success</t>
@@ -18256,19 +18264,19 @@
           <t>token</t>
         </is>
       </c>
-      <c r="M6" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="M6" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
         </is>
       </c>
       <c r="N6" s="6" t="inlineStr">
         <is>
-          <t>2020-12-02 14:21:28</t>
+          <t>2020-12-02 15:25:52</t>
         </is>
       </c>
       <c r="O6" s="0" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': None}</t>
+          <t>Error!</t>
         </is>
       </c>
       <c r="P6" s="19" t="inlineStr">
@@ -18312,19 +18320,19 @@
           <t>token</t>
         </is>
       </c>
-      <c r="M7" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="M7" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
         </is>
       </c>
       <c r="N7" s="6" t="inlineStr">
         <is>
-          <t>2020-12-02 14:21:28</t>
+          <t>2020-12-02 15:25:52</t>
         </is>
       </c>
       <c r="O7" s="0" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': None}</t>
+          <t>Error!</t>
         </is>
       </c>
       <c r="P7" s="19" t="inlineStr">
@@ -18332,7 +18340,11 @@
           <t>200</t>
         </is>
       </c>
-      <c r="Q7" s="0" t="inlineStr"/>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>请求失败！</t>
+        </is>
+      </c>
       <c r="R7" s="0" t="inlineStr">
         <is>
           <t>success</t>
@@ -18575,7 +18587,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2020-12-02 14:21:26</t>
+          <t>2020-12-02 15:25:20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -18585,7 +18597,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.548149347305298</t>
+          <t>32.652459383010864</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -18595,7 +18607,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>成功:5 失败:1</t>
+          <t>成功:1 失败:5</t>
         </is>
       </c>
     </row>
@@ -18642,7 +18654,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -18652,7 +18664,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -18686,7 +18698,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': {'list': [{'villageId': 'f67b081c30304adfb7d82d6a4a02989d', 'villageNumber': '3301060050000004', 'villageName': '王汉村', 'regionCode': '330106005000', 'villageTownshipName': '王汉村(华星路99号)', 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': None, 'naturalVillage': '王汉村', 'multiple': 17, 'househoIdIdList': None}, {'villageId': '26697df059b14cba93f479091e19c752', 'villageNumber': '3301060050000003', 'villageName': '王汉村', 'regionCode': '330106005000', 'villageTownshipName': '王汉村(华星路99号)', 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': None, 'naturalVillage': '王汉村', 'multiple': 17, 'househoIdIdList': None}, {'villageId': '1a0e1262bada410684a6284ecbf2013d', 'villageNumber': '3301060050000002', 'villageName': '王汉村', 'regionCode': '330106005000', 'villageTownshipName': '王汉村(华星路99号)', 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': None, 'naturalVillage': '王汉村', 'multiple': 17, 'househoIdIdList': None}, {'villageId': 'ebd6fd3f53e04255a4bfd852c2aaee9e', 'villageNumber': '3301060050000001', 'villageName': '王汉村123', 'regionCode': '330106005000', 'villageTownshipName': '王汉村123(华星路99号)', 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': None, 'naturalVillage': '王汉村', 'multiple': 17, 'househoIdIdList': None}, {'villageId': 'ce7f9d1c5ccf4b92ac14cc72faa51670', 'villageNumber': '3301100040000001', 'villageName': '黄杨尖', 'regionCode': '330110004000', 'villageTownshipName': '黄杨尖(1)', 'regionCodeName': None, 'townshipName': '1', 'image': '', 'introduction': '', 'address': '浙江省舟山市普陀区黄杨尖村', 'longitude': 122.259895, 'latitude': 30.045121, 'area': 11.0, 'perCapitaIncome': 1.0, 'ext': None, 'naturalVillage': '黄杨尖1', 'multiple': 17, 'househoIdIdList': None}, {'villageId': '1901978fa48a4124a4c25d923867a8cb', 'villageNumber': '1101010013', 'villageName': '云上集市村', 'regionCode': '110101004000', 'villageTownshipName': '云上集市村(甲骨文)', 'regionCodeName': None, 'townshipName': '甲骨文', 'image': '44aaa24fec7e40e892d48ce634a8d324', 'introduction': None, 'address': '', 'longitude': 116.439552, 'latitude': 39.899338, 'area': 1500.0, 'perCapitaIncome': 6500.0, 'ext': None, 'naturalVillage': '111', 'multiple': 16, 'househoIdIdList': None}, {'villageId': '56117cbf05514d398d075e9f1cf9a972', 'villageNumber': '1101010012', 'villageName': '一村一码展示村', 'regionCode': '110101001000', 'villageTownshipName': '一村一码展示村(甲骨文)', 'regionCodeName': None, 'townshipName': '甲骨文', 'image': '5cdc96b555864cfca8a0e28dff794217,1aae326f787c4028bad4ccc15bf8ad8b', 'introduction': '&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000&lt;strong&gt;央视网消息&lt;/strong&gt;（新闻联播）：中共中央总书记、国家主席、中央军委主席习近平24日下午在参加十三届全国人大三次会议湖北代表团审议时强调，防范化解重大疫情和突发公共卫生风险，事关国家安全和发展，事关社会政治大局稳定。要坚持整体谋划、系统重塑、全面提升，改革疾病预防控制体系，提升疫情监测预警和应急响应能力，健全重大疫情救治体系，完善公共卫生应急法律法规，深入开展爱国卫生运动，着力从体制机制层面理顺关系、强化责任。&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255); text-align: center;"&gt;&lt;img src="http://p5.img.cctvpic.com//photoworkspace/2020/05/24/2020052421431422865.jpg" alt="\u3000" width="500"/&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;\u3000\u30005月24日，中共中央总书记、国家主席、中央军委主席习近平参加十三届全国人大三次会议湖北代表团的审议。&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000当习近平走进会场时，全场起立，热烈鼓掌。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000罗杰、阎志、张文喜、宋庆礼、禹诚5位代表分别就加强公共卫生体系建设、加大对实体经济扶持、提升城乡基层治理水平、贫困山区大交通建设和脱贫产业发展、疫情防控展现中国制度优势等问题发表意见。习近平同代表们进行深入交流。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000在认真听取代表发言后，习近平作了发言。他首先表示，湖北人民、武汉人民为疫情防控作出了重大贡献，也付出了巨大牺牲。武汉不愧为英雄的城市，湖北人民和武汉人民不愧为英雄的人民。他向在座各位、向湖北各族干部群众致以诚挚的问候和衷心的感谢。&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255); text-align: center;"&gt;&lt;img src="http://p3.img.cctvpic.com//photoworkspace/2020/05/24/2020052421441092979.jpg" alt="\u3000" width="500"/&gt;&lt;/p&gt;&lt;p class="photo_alt_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;\u3000\u30005月24日，中共中央总书记、国家主席、中央军委主席习近平参加十三届全国人大三次会议湖北代表团的审议。&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平强调，当前，境外疫情扩散蔓延势头仍然没有得到有效遏制，国内个别地区聚集性疫情仍然存在，湖北有时还出现散发零星确诊病例，无症状感染者每天还有新增。针尖大的窟窿能漏过斗大的风。要时刻绷紧疫情防控这根弦，慎终如始、再接再厉，持续抓好外防输入、内防反弹工作，决不能让来之不易的疫情防控成果前功尽弃。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平指出，作为全国疫情最重、管控时间最长的省份，湖北经济重振面临较大困难。同时，湖北经济长期向好的基本面没有改变，多年积累的综合优势没有改变，在国家和区域发展中的重要地位没有改变。党中央研究确定了支持湖北省经济社会发展一揽子政策。希望湖北的同志统筹推进疫情防控和经济社会发展工作，坚持稳中求进工作总基调，主动作为、奋发有为，充分激发广大干部群众积极性、主动性、创造性，确保完成决胜全面建成小康社会、决战脱贫攻坚目标任务，奋力谱写湖北高质量发展新篇章。&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255); text-align: center;"&gt;&lt;img src="http://p1.img.cctvpic.com//photoworkspace/2020/05/24/2020052421450288590.jpg" alt="\u3000" width="500"/&gt;&lt;/p&gt;&lt;p class="photo_alt_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;\u3000\u30005月24日，中共中央总书记、国家主席、中央军委主席习近平参加十三届全国人大三次会议湖北代表团的审议。&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平强调，当前，摆在湖北面前的紧要任务，就是全力做好统筹疫情防控和经济社会发展工作。要全力做好常态化疫情防控工作，坚持常态化精准防控和局部应急处置有机结合，加强社区精准防控，扩大检测范围，不断巩固疫情防控成果。要加快复工复产、复商复市，围绕重点产业链、龙头企业、重大投资项目精准施策，着力帮助解决产业链协同复工复产中的各种堵点、难点问题，帮助解决企业特别是中小微企业面临的实际困难，抓紧出台和落实各项刺激消费的措施，千方百计把疫情造成的损失降到最低。要切实做好“六保”工作，做好高校毕业生、农民工等重点群体就业，做好保基本民生工作，帮助群众解决社保、医保、就学等方面的实际困难，落实好特殊困难群众兜底保障工作，坚决完成剩余贫困人口脱贫任务，防止因疫致贫或返贫。要高度重视化解可能出现的“疫后综合症”，继续做好治愈患者康复和心理疏导工作以及病亡者家属抚慰工作，妥善解决因疫利益受损群众的合理诉求。中央和国家机关单位、中央企业要继续加大对湖北疫后重振支持力度，让各项政策措施在湖北早落地、早见效、早受益，把政策优势转化为发展优势。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平指出，这次应对疫情，我国公共卫生体系、医疗服务体系发挥了重要作用，但也暴露出来一些短板和不足。我们要正视存在的问题，加大改革力度，抓紧补短板、堵漏洞、强弱项。预防是最经济最有效的健康策略。要立足更精准更有效地防，优化完善疾病预防控制机构职能设置，创新医防协同机制，强化各级医疗机构疾病预防控制职责，督促落实传染病疫情和突发公共卫生事件报告责任，健全疾控机构与城乡社区联动工作机制，加强乡镇卫生院和社区卫生服务中心疾病预防控制职责，夯实联防联控的基层基础。&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255); text-align: center;"&gt;&lt;img src="http://p4.img.cctvpic.com//photoworkspace/2020/05/24/2020052421455873372.jpg" alt="\u3000" width="500"/&gt;&lt;/p&gt;&lt;p class="photo_img_20190808" style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;&lt;span style="color: rgb(51, 102, 255);"&gt;\u3000\u30005月24日，中共中央总书记、国家主席、中央军委主席习近平参加十三届全国人大三次会议湖北代表团的审议。&lt;/span&gt;&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平强调，疫情监测预警贵在及时、准确。要改进不明原因疾病和异常健康事件监测机制，提高评估监测敏感性和准确性，建立智慧化预警多点触发机制，健全多渠道监测预警机制，及时研判风险，加强传染病等重大疫情应对处置能力建设和培训演练，改善疾病预防控制基础条件，完善公共卫生服务项目，建立适应现代化疾控体系的人才培养使用机制，增强一线疾控人员的荣誉感和使命感。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平指出，要统筹应急状态下医疗卫生机构动员响应、区域联动、人员调集，建立健全分级、分层、分流的重大疫情救治机制，加强国家医学中心、区域医疗中心等基地建设，健全重大疾病医疗保险和救助制度，优化科研攻关体系和布局，抓好《关于健全公共卫生应急物资保障体系的实施方案》组织落实。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平强调，要加快构建系统完备、科学规范、运行高效的公共卫生法律法规体系，健全权责明确、程序规范、执行有力的疫情防控执法机制，普及公共卫生安全和疫情防控相关法律法规，提高全民知法、懂法、守法、护法、用法意识和公共卫生风险防控意识。&lt;/p&gt;&lt;p style="margin-top: 28px; margin-bottom: 28px; padding: 0px; font-variant-numeric: normal; font-variant-east-asian: normal; font-stretch: normal; line-height: 1.75em; font-family: Arial, &amp;quot;microsoft yahei&amp;quot;; color: rgb(51, 51, 51); white-space: normal; background-color: rgb(255, 255, 255);"&gt;\u3000\u3000习近平指出，新时代开展爱国卫生运动，要坚持预防为主，创新方式方法，推进城乡环境整治，完善公共卫生设施，大力开展健康知识普及，倡导文明健康、绿色环保的生活方式，把全生命周期管理理念贯穿城市规划、建设、管理全过程各环节，加快建设适应城镇化快速发展、城市人口密集集中特点的公共卫生体系，深入持久开展农村人居环境整治。现在，出门佩戴口罩、垃圾分类投放、保持社交距离、推广分餐公筷、看病网上预约等，正在悄然成为良好社会风尚。这些健康文明的做法要推广开来、坚持下去。&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;', 'address': '浙江省杭州市江干区富春路789号宋都房地产集团有限公司', 'longitude': 120.21686, 'latitude': 30.254082, 'area': 1500.0, 'perCapitaIncome': 200001.0, 'ext': None, 'naturalVillage': '2222222,33333333', 'multiple': 14, 'househoIdIdList': None}, {'villageId': '866fdbda20014a36bd6e01fb664b88aa', 'villageNumber': '1201020020000001', 'villageName': '吱吱吱吱123', 'regionCode': '140105001000', 'villageTownshipName': '吱吱吱吱123(甲骨文镇123)', 'regionCodeName': None, 'townshipName': '甲骨文镇123', 'image': '2ce1e123a32b445c8f921ea6716b37ed,78561e9735b545f9bdf0bd87805d312d,c95cb7439bc14761ace9cd239cce2852,f59d4ed0d0c24dbda75de0916d1d8f6c,a5cfbbf34ec84aa7b1b1e2b8b05cbb12,edf3ee05e3084602aad90cda7bdc6cd5,8fa21b37c6874e08b016739865363615,901a3e5ac7b44fc7b977a2c13dd1178b,dc926336cd304ec6892dd879e91e6bc9', 'introduction': '&lt;p&gt;&lt;strong&gt;&lt;span style="font-family: &amp;quot;Microsoft Yahei&amp;quot;;"&gt;这是一次罕见的全球性危机，也是全人类面临的共同挑战。作为最早向国际社会通报疫情、最早迎战疫情的国家，中国全民动员、举国上阵，经过艰苦奋战，付出巨大牺牲，成为世界上率先控制住国内疫情的国家之一，不仅为世界守住疫情防控的区域防线，也为全球抗疫积累了宝贵经验。&amp;lt;/p&amp;gt;&amp;lt;p&amp;nbsp; style=\\&amp;quot;-webkit-tap-highlight-color:&amp;nbsp; rgba(0,&amp;nbsp; 0,&amp;nbsp; 0,&amp;nbsp; 0);&amp;nbsp; margin-top:&amp;nbsp; 0px;&amp;nbsp; margin-bottom:&amp;nbsp; 25px;&amp;nbsp; font-size:&amp;nbsp; 18px;&amp;nbsp; text-align:&amp;nbsp; justify;&amp;nbsp; word-break:&amp;nbsp; normal;&amp;nbsp; overflow-wrap:&amp;nbsp; break-word;&amp;nbsp; background-color:&amp;nbsp; rgb(255,&amp;nbsp; 255,&amp;nbsp; 255);&amp;nbsp; text-indent:&amp;nbsp; 2em;&amp;nbsp; color:&amp;nbsp; rgb(47,&amp;nbsp; 47,&amp;nbsp; 47);&amp;nbsp; font-family:&amp;nbsp; PingFangSC-Regular,&amp;nbsp; STXihei,&amp;nbsp; Verdana,&amp;nbsp; Calibri,&amp;nbsp; Helvetica,&amp;nbsp; Arial,&amp;nbsp; sans-serif;&amp;nbsp; white-space:&amp;nbsp; normal;\\&amp;quot;&amp;gt;事非经过不知难。如今，越来越多的人认识到新冠病毒的“狡猾”，也切身体验到疫情对人类社会的巨大危害。但在3个多月前，恐怕谁也料不到，疫情会以如此猛烈的方式肆虐全球。突袭而至，来势汹汹，中国迎战的风险和难度超乎想象：如何对尚未充分认知的病毒进行防控？如何在春运大潮中阻断病毒传播？如何确保数目庞大的患者应收尽收、应治尽治？如何确定有效的治疗手段和药物……诸多未知，考验应对。&amp;lt;span&amp;nbsp; style=\\&amp;quot;-webkit-tap-highlight-color:&amp;nbsp; rgba(0,&amp;nbsp; 0,&amp;nbsp; 0,&amp;nbsp; 0);&amp;nbsp; font-weight:&amp;nbsp; 700;&amp;nbsp; color:&amp;nbsp; rgb(51,&amp;nbsp; 51,&amp;nbsp; 51);\\&amp;quot;&amp;gt;有人说，中国提前做了一场“闭卷考试”，在病毒传染国内人口不到0.006%时就勒住了“脱缰野马”，创造了人类与传染病斗争史上的奇迹。&amp;lt;/span&amp;gt;这样的“中国答卷”，来之不易，感天动地。&amp;lt;/p&amp;gt;&amp;lt;p&amp;nbsp; style=\\&amp;quot;-webkit-tap-highlight-color:&amp;nbsp; rgba(0,&amp;nbsp; 0,&amp;nbsp; 0,&amp;nbsp; 0);&amp;nbsp; margin-top:&amp;nbsp; 0px;&amp;nbsp; margin-bottom:&amp;nbsp; 25px;&amp;nbsp; font-size:&amp;nbsp; 18px;&amp;nbsp; text-align:&amp;nbsp; justify;&amp;nbsp; word-break:&amp;nbsp; normal;&amp;nbsp; overflow-wrap:&amp;nbsp; break-word;&amp;nbsp; background-color:&amp;nbsp; rgb(255,&amp;nbsp; 255,&amp;nbsp; 255);&amp;nbsp; text-indent:&amp;nbsp; 2em;&amp;nbsp; color:&amp;nbsp; rgb(47,&amp;nbsp; 47,&amp;nbsp; 47);&amp;nbsp; font-family:&amp;nbsp; PingFangSC-Regular,&amp;nbsp; STXihei,&amp;nbsp; Verdana,&amp;nbsp; Calibri,&amp;nbsp; Helvetica,&amp;nbsp; Arial,&amp;nbsp; sans-serif;&amp;nbsp; white-space:&amp;nbsp; normal;\\&amp;quot;&amp;gt;&amp;lt;span&amp;nbsp; style=\\&amp;quot;-webkit-tap-highlight-color:&amp;nbsp; rgba(0,&amp;nbsp; 0,&amp;nbsp; 0,&amp;nbsp; 0);&amp;nbsp; font-weight:&amp;nbsp; 700;&amp;nbsp; color:&amp;nbsp; rgb(51,&amp;nbsp; 51,&amp;nbsp; 51);\\&amp;quot;&amp;gt;这张“中国答卷”，记录下艰苦卓绝的努力。&amp;lt;/span&amp;gt;习近平总书记把疫情比作一次大考，亲自指挥、亲自部署，农历大年初一当天主持召开中央政治局常委会会议，对疫情防控特别是患者治疗工作进行再研究、再部署、再动员。而此前两天，武汉关闭离汉通道，采取“封城”措施；此前一天，3支解放军医疗队逆行武汉，紧急支援。早发现、早报告、早隔离、早治疗，集中患者、集中专家、集中资源、集中救治……全国各地4.2万医务人员火速赶赴武汉，火神山医院、雷神山医院10天启用。世界卫生组织报告指出，“面对前所未知的病毒，中国采取了历史上最勇敢、最灵活、最积极的防控措施”；美国《科学》杂志登载的研究报告显示，中国的防控措施成功地打破了病毒传播链，避免了数十万人感染。&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;', 'address': '', 'longitude': 113.154565, 'latitude': 22.971704, 'area': 1500.0, 'perCapitaIncome': 16081.0, 'ext': None, 'naturalVillage': '22,11,3,4,64,爱神爱神,123123', 'multiple': 12, 'househoIdIdList': None}, {'villageId': '1951b8b3ffe74fc083b83ed96eb87956', 'villageNumber': '3301121030000001', 'villageName': '指南村', 'regionCode': '330112103000', 'villageTownshipName': '指南村(浙江省杭州市临安区太湖源镇)', 'regionCodeName': None, 'townshipName': '浙江省杭州市临安区太湖源镇', 'image': '9b69ede11c6a4787adc2112180c35539', 'introduction': '&lt;p&gt;&amp;nbsp; &amp;nbsp; 太湖源镇指南村区域面积7.86平方公里，平均海拔550米，森林覆盖率在93%以上。由指南和塘顶两个自然村组成，213户678人（塘顶43户，指南170户），房屋198幢。&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; 太湖源镇耕地总面积42262亩，其中基本农田41771亩，人均耕地面积1.32亩。指南村耕地总面积1164亩，其中基本农田512亩，人均耕地面积1.71亩。2019年全镇耕地保护资金443.54万元（农户104.38万元，行政村339.16万元），指南村耕地保护资金5.84万元（农户1.64万元，行政村4.2万元），另有耕地保护示范镇奖励50万元。&lt;/p&gt;&lt;p&gt;2019年全镇审批农民建房254户，去年占用耕地建房25户。2020年已审批农民建房124户，占用耕地建房10户。&lt;/p&gt;&lt;p&gt;指南村2019年审批7户，2020年审批2户。&lt;/p&gt;&lt;p&gt;&amp;nbsp; &amp;nbsp; 全区村庄建设用地52.71平方千米，人均村庄建设用地216平方米/人。太湖源镇村庄建设用地6.91平方米千米，人均村庄建设用地215平方米/人。指南村村庄建设用地0.14平方千米，人均村庄建设用地208平方米/人。轻钢房建造价格（博墅）：1300元/平方米、1400元/平方米、1700元/平方米，不含装修费用&lt;/p&gt;&lt;p&gt;&lt;br/&gt;&lt;/p&gt;', 'address': '太湖源镇永指线西50米指南村村委会', 'longitude': 119.579203, 'latitude': 30.362472, 'area': 78600.0, 'perCapitaIncome': 35000.0, 'ext': None, 'naturalVillage': '浙江省杭州市临安区太湖源镇指南村', 'multiple': 16, 'househoIdIdList': None}, {'villageId': 'cc090a2d74f042bab938b31d5c151eec', 'villageNumber': '1302030014', 'villageName': '画地图村', 'regionCode': '130203', 'villageTownshipName': '画地图村(画地图)', 'regionCodeName': None, 'townshipName': '画地图', 'image': 'ff319775388441df9a7577a3d94c361c', 'introduction': None, 'address': '浙江省杭州市上城区浣纱路261号杭州市第一人民医院', 'longitude': 120.164147, 'latitude': 30.277323, 'area': 5000.0, 'perCapitaIncome': 15001.0, 'ext': None, 'naturalVillage': '测试导3,测试导21,测试导,cxzzzz,ccc,cxz,qqqqqqqqqqqqqqqqqqqq', 'multiple': 16, 'househoIdIdList': None}], 'pagination': {'startNumber': 0, 'current': 1, 'totalPage': 2, 'pageSize': 10, 'total': 20}}}</t>
+          <t>{'timestamp': '2020-12-02 15:25:52', 'path': '/digital-village/hydra-digital-village/api/v1/village-information/list', 'status': 500, 'error': 'Internal Server Error', 'message': 'connection timed out: /192.168.137.1:15010'}</t>
         </is>
       </c>
     </row>
@@ -18696,14 +18708,14 @@
           <t>一村一码查看</t>
         </is>
       </c>
-      <c r="B7" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="B7" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': {'villageId': 'f67b081c30304adfb7d82d6a4a02989d', 'villageNumber': '3301060050000004', 'villageName': '王汉村', 'regionCode': '330106005000', 'villageTownshipName': None, 'regionCodeName': None, 'townshipName': '华星路99号', 'image': '97a9c35cc7a24c899eb2ccc57cbe7f8b', 'introduction': '&lt;p&gt;测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据测试数据&lt;/p&gt;', 'address': '浙江省杭州市西湖区2号线古翠路(地铁站)', 'longitude': 120.120997, 'latitude': 30.278255, 'area': 5000.0, 'perCapitaIncome': 6000.0, 'ext': [{'villageExtId': '2680eabd1f9a4a8eb966b1316daed489', 'villageId': 'f67b081c30304adfb7d82d6a4a02989d', 'name': '王汉村', 'address': '[[120.119817,30.278977],[120.119978,30.277217],[120.122338,30.277365],[120.122199,30.278088],[120.122156,30.278282],[120.122456,30.278403],[120.122585,30.278588],[120.122521,30.279107]]', 'naturalVillageNumber': 'WHC1606890088699'}], 'naturalVillage': None, 'multiple': 17, 'househoIdIdList': None}}</t>
+          <t>请求失败！</t>
         </is>
       </c>
     </row>
@@ -18713,14 +18725,14 @@
           <t>一村一码编辑</t>
         </is>
       </c>
-      <c r="B8" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="B8" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': None}</t>
+          <t>请求失败！</t>
         </is>
       </c>
     </row>
@@ -18730,16 +18742,12 @@
           <t>一村一码导出</t>
         </is>
       </c>
-      <c r="B9" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': None}</t>
-        </is>
-      </c>
+      <c r="B9" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -18747,14 +18755,14 @@
           <t>一村一码删除</t>
         </is>
       </c>
-      <c r="B10" s="19" t="inlineStr">
-        <is>
-          <t>pass</t>
+      <c r="B10" s="20" t="inlineStr">
+        <is>
+          <t>faild</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>{'state': 200, 'internalErrorCode': '0', 'msg': 'success', 'results': None}</t>
+          <t>请求失败！</t>
         </is>
       </c>
     </row>
